--- a/DocsApp-test-automation/config/config.xlsx
+++ b/DocsApp-test-automation/config/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DocsApp\DocsApp-test-automation\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git2\DocsApp-test-automation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,8 @@
     <sheet name="Dont delete" sheetId="3" r:id="rId1"/>
     <sheet name="devicesList" sheetId="1" r:id="rId2"/>
     <sheet name="config" sheetId="2" r:id="rId3"/>
-    <sheet name="URL's" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Execution Control" sheetId="5" r:id="rId4"/>
+    <sheet name="URL's" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
   <si>
     <t>SI No</t>
   </si>
@@ -123,6 +124,39 @@
   </si>
   <si>
     <t>BrowserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modules </t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>Module1</t>
+  </si>
+  <si>
+    <t>Module2</t>
+  </si>
+  <si>
+    <t>Module3</t>
+  </si>
+  <si>
+    <t>Module4</t>
+  </si>
+  <si>
+    <t>Module5</t>
+  </si>
+  <si>
+    <t>Module6</t>
+  </si>
+  <si>
+    <t>Module7</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
   </si>
   <si>
     <t xml:space="preserve">420076ac967123f9	</t>
@@ -550,7 +584,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C22:C23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,19 +621,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +659,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,9 +820,230 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="41" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
